--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf17-Fgfr1.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H2">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J2">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N2">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O2">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P2">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q2">
-        <v>1.068867488394445</v>
+        <v>0.8238425493733332</v>
       </c>
       <c r="R2">
-        <v>9.61980739555</v>
+        <v>7.41458294436</v>
       </c>
       <c r="S2">
-        <v>0.008373994825897957</v>
+        <v>0.003720127486450831</v>
       </c>
       <c r="T2">
-        <v>0.008373994825897953</v>
+        <v>0.003720127486450832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H3">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J3">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>260.960411</v>
       </c>
       <c r="O3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P3">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q3">
-        <v>12.20787300458611</v>
+        <v>8.683892610043333</v>
       </c>
       <c r="R3">
-        <v>109.870857041275</v>
+        <v>78.15503349039</v>
       </c>
       <c r="S3">
-        <v>0.09564203840569802</v>
+        <v>0.03921281756153869</v>
       </c>
       <c r="T3">
-        <v>0.09564203840569799</v>
+        <v>0.03921281756153869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H4">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J4">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N4">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P4">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q4">
-        <v>3.647549011547222</v>
+        <v>5.771580038996666</v>
       </c>
       <c r="R4">
-        <v>32.82794110392499</v>
+        <v>51.94422035096999</v>
       </c>
       <c r="S4">
-        <v>0.02857656059479075</v>
+        <v>0.02606203522706452</v>
       </c>
       <c r="T4">
-        <v>0.02857656059479074</v>
+        <v>0.02606203522706453</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1403416666666667</v>
+        <v>0.09982999999999999</v>
       </c>
       <c r="H5">
-        <v>0.421025</v>
+        <v>0.29949</v>
       </c>
       <c r="I5">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="J5">
-        <v>0.1336217402674561</v>
+        <v>0.06953924013247029</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N5">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P5">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q5">
-        <v>0.1313615776611111</v>
+        <v>0.1205293179033333</v>
       </c>
       <c r="R5">
-        <v>1.18225419895</v>
+        <v>1.08476386113</v>
       </c>
       <c r="S5">
-        <v>0.001029146441069406</v>
+        <v>0.0005442598574162382</v>
       </c>
       <c r="T5">
-        <v>0.001029146441069405</v>
+        <v>0.0005442598574162383</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>1.892098</v>
       </c>
       <c r="I6">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J6">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N6">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O6">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P6">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q6">
-        <v>4.80352006901289</v>
+        <v>5.204817656630222</v>
       </c>
       <c r="R6">
-        <v>43.23168062111601</v>
+        <v>46.84335890967201</v>
       </c>
       <c r="S6">
-        <v>0.03763296446076093</v>
+        <v>0.0235027739719478</v>
       </c>
       <c r="T6">
-        <v>0.03763296446076093</v>
+        <v>0.0235027739719478</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>1.892098</v>
       </c>
       <c r="I7">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J7">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>260.960411</v>
       </c>
       <c r="O7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P7">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q7">
         <v>54.86251908136423</v>
@@ -883,10 +883,10 @@
         <v>493.7626717322781</v>
       </c>
       <c r="S7">
-        <v>0.4298179670645315</v>
+        <v>0.2477361303634587</v>
       </c>
       <c r="T7">
-        <v>0.4298179670645316</v>
+        <v>0.2477361303634587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>1.892098</v>
       </c>
       <c r="I8">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J8">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N8">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P8">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q8">
-        <v>16.39218618763844</v>
+        <v>36.46330444631045</v>
       </c>
       <c r="R8">
-        <v>147.529675688746</v>
+        <v>328.169740016794</v>
       </c>
       <c r="S8">
-        <v>0.1284238540425922</v>
+        <v>0.1646529925174741</v>
       </c>
       <c r="T8">
-        <v>0.1284238540425922</v>
+        <v>0.1646529925174742</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>1.892098</v>
       </c>
       <c r="I9">
-        <v>0.600499798151115</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="J9">
-        <v>0.6004997981511151</v>
+        <v>0.4393303855760352</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N9">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P9">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q9">
-        <v>0.5903425648582222</v>
+        <v>0.7614721070695556</v>
       </c>
       <c r="R9">
-        <v>5.313083083724001</v>
+        <v>6.853248963626001</v>
       </c>
       <c r="S9">
-        <v>0.004625012583230307</v>
+        <v>0.003438488723154528</v>
       </c>
       <c r="T9">
-        <v>0.004625012583230308</v>
+        <v>0.003438488723154529</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H10">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J10">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.616180666666668</v>
+        <v>8.252454666666667</v>
       </c>
       <c r="N10">
-        <v>22.848542</v>
+        <v>24.757364</v>
       </c>
       <c r="O10">
-        <v>0.06266940401417195</v>
+        <v>0.05349680956196952</v>
       </c>
       <c r="P10">
-        <v>0.06266940401417194</v>
+        <v>0.05349680956196953</v>
       </c>
       <c r="Q10">
-        <v>2.126815912439778</v>
+        <v>5.818500444644</v>
       </c>
       <c r="R10">
-        <v>19.141343211958</v>
+        <v>52.366504001796</v>
       </c>
       <c r="S10">
-        <v>0.01666244472751306</v>
+        <v>0.02627390810357089</v>
       </c>
       <c r="T10">
-        <v>0.01666244472751306</v>
+        <v>0.0262739081035709</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H11">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I11">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J11">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>260.960411</v>
       </c>
       <c r="O11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978928</v>
       </c>
       <c r="P11">
-        <v>0.7157670466966058</v>
+        <v>0.5638948237978929</v>
       </c>
       <c r="Q11">
-        <v>24.29103592831545</v>
+        <v>61.33117675363101</v>
       </c>
       <c r="R11">
-        <v>218.619323354839</v>
+        <v>551.9805907826791</v>
       </c>
       <c r="S11">
-        <v>0.1903070412263763</v>
+        <v>0.2769458758728954</v>
       </c>
       <c r="T11">
-        <v>0.1903070412263763</v>
+        <v>0.2769458758728955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H12">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I12">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J12">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.99049233333333</v>
+        <v>57.81408433333333</v>
       </c>
       <c r="N12">
-        <v>77.97147699999999</v>
+        <v>173.442253</v>
       </c>
       <c r="O12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="P12">
-        <v>0.2138616106749706</v>
+        <v>0.3747817085348802</v>
       </c>
       <c r="Q12">
-        <v>7.257836320585889</v>
+        <v>40.762571742313</v>
       </c>
       <c r="R12">
-        <v>65.320526885273</v>
+        <v>366.863145680817</v>
       </c>
       <c r="S12">
-        <v>0.05686119603758768</v>
+        <v>0.1840666807903415</v>
       </c>
       <c r="T12">
-        <v>0.05686119603758767</v>
+        <v>0.1840666807903416</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2792496666666667</v>
+        <v>0.705063</v>
       </c>
       <c r="H13">
-        <v>0.837749</v>
+        <v>2.115189</v>
       </c>
       <c r="I13">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="J13">
-        <v>0.2658784615814289</v>
+        <v>0.4911303742914945</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.9360126666666666</v>
+        <v>1.207345666666667</v>
       </c>
       <c r="N13">
-        <v>2.808038</v>
+        <v>3.622037</v>
       </c>
       <c r="O13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257385</v>
       </c>
       <c r="P13">
-        <v>0.007701938614251506</v>
+        <v>0.007826658105257386</v>
       </c>
       <c r="Q13">
-        <v>0.2613812251624444</v>
+        <v>0.851254757777</v>
       </c>
       <c r="R13">
-        <v>2.352431026462</v>
+        <v>7.661292819993</v>
       </c>
       <c r="S13">
-        <v>0.002047779589951792</v>
+        <v>0.003843909524686619</v>
       </c>
       <c r="T13">
-        <v>0.002047779589951792</v>
+        <v>0.00384390952468662</v>
       </c>
     </row>
   </sheetData>
